--- a/medicine/Enfance/Fred_Paronuzzi/Fred_Paronuzzi.xlsx
+++ b/medicine/Enfance/Fred_Paronuzzi/Fred_Paronuzzi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fred Paronuzzi est un écrivain français né en Savoie le 2 juin 1967.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il été professeur de français en Écosse, au Canada puis en Slovaquie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il été professeur de français en Écosse, au Canada puis en Slovaquie.
 Dans son premier roman, 10 ans 3/4, il retrace le parcours d'un jeune immigré italien installé dans un petit village industriel savoyard, au cœur des années 1970.
 Son deuxième roman sort en 2005 sous le titre Comme s'ils étaient beaux, aux éditions Le Dilettante.
 Son troisième roman, La Lettre de Flora, est publié en 2007 aux éditions Robert Laffont.
@@ -552,29 +566,170 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans littérature générale
-10 ans 3/4, éditions Le Dilettante, 2003  (ISBN 9782290336236)
+          <t>Romans littérature générale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10 ans 3/4, éditions Le Dilettante, 2003  (ISBN 9782290336236)
 Comme s'ils étaient beaux, éditions Le Dilettante, 2005  (ISBN 9782842631031)
 La Lettre de Flora, éditions Robert Laffont, 2007  (ISBN 9782266175722)
-Drôle d'endroit pour de la neige, éditions Anne Carrière, 2018
-Romans littérature jeunesse
-Un Cargo pour Berlin, Thierry Magnier éditeur, 2011  (ISBN 9782844208859)
+Drôle d'endroit pour de la neige, éditions Anne Carrière, 2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un Cargo pour Berlin, Thierry Magnier éditeur, 2011  (ISBN 9782844208859)
 Mon père est américain, Thierry Magnier éditeur, 2012  (ISBN 978-2-36474-035-8)
 Là où je vais, Thierry Magnier éditeur, 2013
 Capitaine Triplefesse, à l'abordage ! (1), Thierry Magnier éditeur, 2015
 Capitaine Triplefesse, à la rescousse ! (2), Thierry Magnier éditeur, 2015
-Il faut sauver la lune, Thierry Magnier éditeur, 2016
-Recueils de nouvelles
-Terrains minés, Thierry Magnier éditeur, 2010  (ISBN 9782844208040)
-Dans les cordes, Thierry Magnier éditeur, 2014
-Bandes dessinées (scénariste)
-Zia Flora (dessin : Vincent Djinda) Sarbacane éditions, 2014
+Il faut sauver la lune, Thierry Magnier éditeur, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Terrains minés, Thierry Magnier éditeur, 2010  (ISBN 9782844208040)
+Dans les cordes, Thierry Magnier éditeur, 2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Bandes dessinées (scénariste)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Zia Flora (dessin : Vincent Djinda) Sarbacane éditions, 2014
 Capitaine Triplefesse, à l'abordage ! (dessins Quentin Girardclos), Thierry Magnier éditeur, 2021
 De sel et de sang (dessins Vincent Djinda), les Arènes BD, 2022
 Capitaine Triplefesse - À la rescousse ! (dessins Q. Girardclos), T. Magnier éditeur, 2022
-Juliette Pommerol chez les Angliches (d'après le roman de Valentine Goby, dessins Charlotte Mevel), T. Magnier éditeur, 2023
-Albums
-Gérard, illustrations Andrée Prigent, Kaléidoscope
+Juliette Pommerol chez les Angliches (d'après le roman de Valentine Goby, dessins Charlotte Mevel), T. Magnier éditeur, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Gérard, illustrations Andrée Prigent, Kaléidoscope
 Gérard le bousier, 2014
 Gérard et le machin collant, 2016
 Football Cosmique (illustrations : Robin), Gallimard Jeunesse, 2016
@@ -583,43 +738,113 @@
 Ça déménage ! (illustrations Marianne Barcilon), Kaléidoscope, 2019
 Sssh (illustrations Mariana Ruiz Johnson), Camelozampa, 2019
 La piuma viaggiatrice (illustrations Martina Tonello), Camelozampa, 2022
-Super Meuhmeuh (illustrations Alexis Renaud), La Fontaine de Siloé, 2023
-Participations (recueils de nouvelles collectifs)
-Le Facteur, éditions Delphine Montalant, 2003
+Super Meuhmeuh (illustrations Alexis Renaud), La Fontaine de Siloé, 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Participations (recueils de nouvelles collectifs)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le Facteur, éditions Delphine Montalant, 2003
 Rencontres au bout du monde, Le bout du monde éditions, 2007
-Sauve qui peut les vacances, Thierry Magnier éditeur, 2013
-Publications presse
-En avance malgré lui (nouvelle, Sciences et Vie junior hors série, septembre 2010</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fred_Paronuzzi</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+Sauve qui peut les vacances, Thierry Magnier éditeur, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Publications presse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>En avance malgré lui (nouvelle, Sciences et Vie junior hors série, septembre 2010</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fred_Paronuzzi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF)[2] en 2024 : Un cargo pour Berlin (2010) et Le bébé géant (2017) illustré par Kris Di Giacomo.
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux de ses ouvrages font partie de la « Bibliothèque idéale » du Centre national de la littérature pour la jeunesse (BnF) en 2024 : Un cargo pour Berlin (2010) et Le bébé géant (2017) illustré par Kris Di Giacomo.
 </t>
         </is>
       </c>
